--- a/resources/Documentation.xlsx
+++ b/resources/Documentation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\Mike\emerald2\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B729D4-B625-42A1-8E42-9132508B927B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A67816-7C8F-4336-98C8-031A0F1DC8A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4980" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34395" yWindow="-3480" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="4" r:id="rId1"/>
     <sheet name="Checklist" sheetId="6" r:id="rId2"/>
     <sheet name="Bugs" sheetId="5" r:id="rId3"/>
-    <sheet name="Palette Rules" sheetId="1" r:id="rId4"/>
+    <sheet name="Tilesets" sheetId="1" r:id="rId4"/>
     <sheet name="Options Menu" sheetId="2" r:id="rId5"/>
     <sheet name="Nuzlocke" sheetId="3" r:id="rId6"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>Dirt 1</t>
   </si>
@@ -167,14 +167,121 @@
   </si>
   <si>
     <t>Houses/streetlights etc should be in the secondary tileset, although graphics for basic items that will be used in a lot of maps can be included in the primary tileset picture</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Other material</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Dirt</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Checkerboarding enabled</t>
+  </si>
+  <si>
+    <t>No checkerboarding</t>
+  </si>
+  <si>
+    <t>Tile materials</t>
+  </si>
+  <si>
+    <t>Metatile material will be specified for the top and bottom layer</t>
+  </si>
+  <si>
+    <t>Palette control</t>
+  </si>
+  <si>
+    <t>Rock/water pal 2</t>
+  </si>
+  <si>
+    <t>Grass/dirt/rock/water pal 1, snow</t>
+  </si>
+  <si>
+    <t>Grass/dirt/rock/water pal 0, sand</t>
+  </si>
+  <si>
+    <t>Water pal 3</t>
+  </si>
+  <si>
+    <t>Water pal 4</t>
+  </si>
+  <si>
+    <t>Water pal 5</t>
+  </si>
+  <si>
+    <t>Grass checkerboard</t>
+  </si>
+  <si>
+    <t>Dirt checkerboard</t>
+  </si>
+  <si>
+    <t>Grass 1/dirt 1 checkerboard</t>
+  </si>
+  <si>
+    <t>Grass 2/dirt 1 checkerboard</t>
+  </si>
+  <si>
+    <t>Grass 1/dirt 2 checkerboard</t>
+  </si>
+  <si>
+    <t>Grass 2/dirt 2 checkerboard</t>
+  </si>
+  <si>
+    <t>Rock 1/2 checkerboard</t>
+  </si>
+  <si>
+    <t>Rock 2/3 checkerboard</t>
+  </si>
+  <si>
+    <t>Rock 1/3 checkerboard</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>If material != 0, controls the palette of the block it's painted over</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -278,11 +385,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,12 +407,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,47 +734,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -673,10 +785,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E3:AA19"/>
+  <dimension ref="D3:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,27 +847,27 @@
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="4" t="s">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="4" t="s">
+      <c r="R4" s="11"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="11"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="6"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="12"/>
       <c r="AA4" t="s">
         <v>39</v>
       </c>
@@ -764,27 +876,27 @@
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="4" t="s">
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="4" t="s">
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="11"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="6"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="12"/>
       <c r="AA5" t="s">
         <v>40</v>
       </c>
@@ -793,27 +905,27 @@
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="4" t="s">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="4" t="s">
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="11"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="6"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="12"/>
       <c r="AA6" t="s">
         <v>41</v>
       </c>
@@ -822,27 +934,27 @@
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="4" t="s">
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="4" t="s">
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="11"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="6"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="12"/>
       <c r="AA7" t="s">
         <v>18</v>
       </c>
@@ -851,27 +963,27 @@
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="4" t="s">
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U8" s="5"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="8" t="s">
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" s="11"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
       <c r="AA8" t="s">
         <v>19</v>
       </c>
@@ -880,25 +992,27 @@
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="4" t="s">
+      <c r="M9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="5"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="4" t="s">
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="11"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="6"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="12"/>
       <c r="AA9" t="s">
         <v>42</v>
       </c>
@@ -910,23 +1024,23 @@
       <c r="M10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="4" t="s">
+      <c r="O10" s="12"/>
+      <c r="P10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="4" t="s">
+      <c r="Q10" s="12"/>
+      <c r="R10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="4" t="s">
+      <c r="S10" s="12"/>
+      <c r="T10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="7"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="4"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -1045,7 +1159,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:25" x14ac:dyDescent="0.25">
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="1"/>
@@ -1063,7 +1177,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:25" x14ac:dyDescent="0.25">
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="1"/>
@@ -1081,7 +1195,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:25" x14ac:dyDescent="0.25">
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="1"/>
@@ -1099,11 +1213,211 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
+    <row r="22" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D32" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Q8:S8"/>
     <mergeCell ref="Q9:S9"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="Q7:S7"/>
@@ -1111,12 +1425,11 @@
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="T8:V8"/>
     <mergeCell ref="T9:V9"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Q8:S8"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="W5:Y5"/>
     <mergeCell ref="W6:Y6"/>
@@ -1129,8 +1442,13 @@
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="T6:V6"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/resources/Documentation.xlsx
+++ b/resources/Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\Mike\emerald2\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A67816-7C8F-4336-98C8-031A0F1DC8A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A58C74-994C-4E3D-AAA7-69D52D92AF79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34395" yWindow="-3480" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="3255" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>Dirt 1</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Metal</t>
   </si>
   <si>
-    <t>Roof</t>
-  </si>
-  <si>
     <t>&gt;&gt;secondary</t>
   </si>
   <si>
@@ -163,12 +160,6 @@
     <t>Sand can be exchanged for snow in snowy biomes</t>
   </si>
   <si>
-    <t>Primary tilesets should only contain "natural" objects that can be used for creating terrain</t>
-  </si>
-  <si>
-    <t>Houses/streetlights etc should be in the secondary tileset, although graphics for basic items that will be used in a lot of maps can be included in the primary tileset picture</t>
-  </si>
-  <si>
     <t>Snow</t>
   </si>
   <si>
@@ -266,6 +257,30 @@
   </si>
   <si>
     <t>If material != 0, controls the palette of the block it's painted over</t>
+  </si>
+  <si>
+    <t>St</t>
+  </si>
+  <si>
+    <t>Brick</t>
+  </si>
+  <si>
+    <t>Evrgreen</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>First palette of secondary tileset always contains flower palettes</t>
+  </si>
+  <si>
+    <t>Red Roof</t>
+  </si>
+  <si>
+    <t>Blue Roof</t>
+  </si>
+  <si>
+    <t>Flr Detail</t>
   </si>
 </sst>
 </file>
@@ -390,7 +405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -410,6 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,48 +749,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -787,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,114 +862,114 @@
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="10" t="s">
+      <c r="M4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="10" t="s">
+      <c r="U4" s="10"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="12"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="11"/>
       <c r="AA4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="5:27" x14ac:dyDescent="0.25">
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="10" t="s">
+      <c r="M5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="10" t="s">
+      <c r="U5" s="10"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="12"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="11"/>
       <c r="AA5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="5:27" x14ac:dyDescent="0.25">
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="10" t="s">
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="10" t="s">
+      <c r="U6" s="10"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="12"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="11"/>
       <c r="AA6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="5:27" x14ac:dyDescent="0.25">
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="10" t="s">
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="12"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="11"/>
       <c r="AA7" t="s">
         <v>18</v>
       </c>
@@ -963,27 +978,27 @@
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="10" t="s">
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="11"/>
       <c r="AA8" t="s">
         <v>19</v>
       </c>
@@ -992,65 +1007,60 @@
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="10" t="s">
+      <c r="M9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="10" t="s">
+      <c r="U9" s="10"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="12"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="11"/>
       <c r="AA9" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="5:27" x14ac:dyDescent="0.25">
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="U10" s="12"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="AA10" t="s">
-        <v>43</v>
-      </c>
+      <c r="M10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="10"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
     </row>
     <row r="11" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
@@ -1073,19 +1083,31 @@
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="11"/>
+      <c r="U12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="11"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="11"/>
     </row>
     <row r="13" spans="5:27" x14ac:dyDescent="0.25">
       <c r="J13" s="2"/>
@@ -1214,13 +1236,13 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="22" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D22" s="7" t="s">
-        <v>53</v>
+      <c r="D22" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.25">
@@ -1228,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.25">
@@ -1236,10 +1258,10 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.25">
@@ -1247,10 +1269,10 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.25">
@@ -1258,10 +1280,10 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.25">
@@ -1269,10 +1291,10 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.25">
@@ -1280,20 +1302,20 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
         <v>49</v>
       </c>
-      <c r="H30" t="s">
+    </row>
+    <row r="32" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D32" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D32" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="9" t="s">
-        <v>76</v>
+      <c r="D33" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
@@ -1301,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
@@ -1309,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
@@ -1317,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
@@ -1325,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
@@ -1333,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
@@ -1341,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
@@ -1349,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
@@ -1357,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
@@ -1365,7 +1387,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
@@ -1373,69 +1395,59 @@
         <v>9</v>
       </c>
       <c r="E44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="8" t="s">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="8" t="s">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Q8:S8"/>
+  <mergeCells count="33">
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:Y12"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="W5:Y5"/>
     <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="M9:P9"/>
@@ -1446,6 +1458,21 @@
     <mergeCell ref="M5:P5"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
